--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -100,12 +100,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>confidence</t>
@@ -1226,25 +1226,25 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6826086956521739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,25 +1252,25 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1382,25 +1382,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5531914893617021</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L21">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1408,25 +1408,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5441176470588235</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="10:17">
